--- a/dados/coordenadas_bairros.xlsx
+++ b/dados/coordenadas_bairros.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Bairro</t>
   </si>
@@ -19,54 +19,18 @@
     <t>Coordenadas</t>
   </si>
   <si>
-    <t>Aeroporto</t>
-  </si>
-  <si>
-    <t>-1.1423013, -48.4545478</t>
-  </si>
-  <si>
-    <t>Água Boa</t>
-  </si>
-  <si>
-    <t>-1.2579676, -48.4541267</t>
-  </si>
-  <si>
     <t>Águas Lindas</t>
   </si>
   <si>
     <t>-1.4106819, -48.3925318</t>
   </si>
   <si>
-    <t>Águas Negras</t>
-  </si>
-  <si>
-    <t>-1.3045941, -48.4432742</t>
-  </si>
-  <si>
-    <t>Agulha</t>
-  </si>
-  <si>
-    <t>-1.3049139, -48.4711298</t>
-  </si>
-  <si>
-    <t>Ariramba</t>
-  </si>
-  <si>
-    <t>-1.1193783, -48.4309014</t>
-  </si>
-  <si>
     <t>Aurá</t>
   </si>
   <si>
     <t>-1.4255977, -48.3847762</t>
   </si>
   <si>
-    <t>Baía do Sol</t>
-  </si>
-  <si>
-    <t>-1.067664, -48.350316</t>
-  </si>
-  <si>
     <t>Barreiro</t>
   </si>
   <si>
@@ -85,18 +49,6 @@
     <t>-1.3755029, -48.4561909</t>
   </si>
   <si>
-    <t>Bonfim</t>
-  </si>
-  <si>
-    <t>-1.1094828, -48.3987632</t>
-  </si>
-  <si>
-    <t>Brasília</t>
-  </si>
-  <si>
-    <t>-1.2801933, -48.4752884</t>
-  </si>
-  <si>
     <t>Cabanagem</t>
   </si>
   <si>
@@ -109,42 +61,18 @@
     <t>-1.4529362, -48.4980117</t>
   </si>
   <si>
-    <t>Campina de Icoaraci</t>
-  </si>
-  <si>
-    <t>-1.2945724, -48.4702334</t>
-  </si>
-  <si>
     <t>Canudos</t>
   </si>
   <si>
     <t>-1.4515326, -48.4606171</t>
   </si>
   <si>
-    <t>Carananduba</t>
-  </si>
-  <si>
-    <t>-1.0946583, -48.403913</t>
-  </si>
-  <si>
-    <t>Caruará</t>
-  </si>
-  <si>
-    <t>-1.0717188, -48.3905825</t>
-  </si>
-  <si>
     <t>Castanheira</t>
   </si>
   <si>
     <t>-1.4077631, -48.4345231</t>
   </si>
   <si>
-    <t>Chapéu-Virado</t>
-  </si>
-  <si>
-    <t>-1.1357473, -48.4524771</t>
-  </si>
-  <si>
     <t>Cidade Velha</t>
   </si>
   <si>
@@ -169,24 +97,12 @@
     <t>-1.4616249, -48.4778756</t>
   </si>
   <si>
-    <t>Cruzeiro</t>
-  </si>
-  <si>
-    <t>-1.2975074, -48.483894</t>
-  </si>
-  <si>
     <t>Curió-Utinga</t>
   </si>
   <si>
     <t>-1.4333062, -48.4197829</t>
   </si>
   <si>
-    <t>Farol</t>
-  </si>
-  <si>
-    <t>-1.1362622, -48.4660813</t>
-  </si>
-  <si>
     <t>Fátima</t>
   </si>
   <si>
@@ -205,12 +121,6 @@
     <t>-1.4007326, -48.4124746</t>
   </si>
   <si>
-    <t>Itaiteua</t>
-  </si>
-  <si>
-    <t>-1.2725526, -48.4464904</t>
-  </si>
-  <si>
     <t>Jurunas</t>
   </si>
   <si>
@@ -223,36 +133,12 @@
     <t>-1.3870649, -48.4451299</t>
   </si>
   <si>
-    <t>Mangueiras</t>
-  </si>
-  <si>
-    <t>-1.1505072, -48.4606954</t>
-  </si>
-  <si>
-    <t>Maracacuera</t>
-  </si>
-  <si>
-    <t>-1.2893634, -48.4496375</t>
-  </si>
-  <si>
-    <t>Maracajá</t>
-  </si>
-  <si>
-    <t>-1.1663183, -48.4633454</t>
-  </si>
-  <si>
     <t>Maracangalha</t>
   </si>
   <si>
     <t>-1.4018138, -48.4784553</t>
   </si>
   <si>
-    <t>Marahú</t>
-  </si>
-  <si>
-    <t>-1.0741484, -48.4007373</t>
-  </si>
-  <si>
     <t>Marambaia</t>
   </si>
   <si>
@@ -277,42 +163,12 @@
     <t>-1.45403185, -48.45115208120467</t>
   </si>
   <si>
-    <t>Murubira</t>
-  </si>
-  <si>
-    <t>-1.1272222, -48.4426361</t>
-  </si>
-  <si>
-    <t>Natal do Murubira</t>
-  </si>
-  <si>
-    <t>-1.1328538, -48.4457367</t>
-  </si>
-  <si>
     <t>Nazaré</t>
   </si>
   <si>
     <t>-1.4526114, -48.4846813</t>
   </si>
   <si>
-    <t>Paracuri</t>
-  </si>
-  <si>
-    <t>-1.3143416, -48.477179</t>
-  </si>
-  <si>
-    <t>Paraíso</t>
-  </si>
-  <si>
-    <t>-1.0689512, -48.3828148</t>
-  </si>
-  <si>
-    <t>Parque Guajará</t>
-  </si>
-  <si>
-    <t>-1.3230454, -48.457996</t>
-  </si>
-  <si>
     <t>Parque Verde</t>
   </si>
   <si>
@@ -325,24 +181,6 @@
     <t>-1.4256402, -48.4698333</t>
   </si>
   <si>
-    <t>Ponta Grossa</t>
-  </si>
-  <si>
-    <t>-1.3072724500000001, -48.48338663430559</t>
-  </si>
-  <si>
-    <t>Porto Arthur</t>
-  </si>
-  <si>
-    <t>-1.1277371, -48.4497171</t>
-  </si>
-  <si>
-    <t>Praia Grande</t>
-  </si>
-  <si>
-    <t>-1.1484692, -48.4655019</t>
-  </si>
-  <si>
     <t>Pratinha</t>
   </si>
   <si>
@@ -373,30 +211,12 @@
     <t>-1.3654216, -48.4628333</t>
   </si>
   <si>
-    <t>São Francisco</t>
-  </si>
-  <si>
-    <t>-1.1076378, -48.4187832</t>
-  </si>
-  <si>
-    <t>São João de Outeiro</t>
-  </si>
-  <si>
-    <t>-1.2680419, -48.4642057</t>
-  </si>
-  <si>
     <t>Souza</t>
   </si>
   <si>
     <t>-1.4165441, -48.4516199</t>
   </si>
   <si>
-    <t>Sucurijuquara</t>
-  </si>
-  <si>
-    <t>-1.0855994, -48.3687171</t>
-  </si>
-  <si>
     <t>Tapanã</t>
   </si>
   <si>
@@ -437,12 +257,6 @@
   </si>
   <si>
     <t>-1.3858138, -48.4734926</t>
-  </si>
-  <si>
-    <t>Vila</t>
-  </si>
-  <si>
-    <t>-1.163774, -48.470181</t>
   </si>
 </sst>
 </file>
@@ -458,9 +272,13 @@
     <font>
       <b/>
     </font>
-    <font/>
     <font>
-      <color rgb="FF000000"/>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -468,12 +286,10 @@
       <name val="Inherit"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
       <color rgb="FF212529"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -515,26 +331,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -543,20 +350,14 @@
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -797,569 +598,318 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="C9" s="4"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="6"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="7"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="6"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="7"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
